--- a/biology/Botanique/Bassia/Bassia.xlsx
+++ b/biology/Botanique/Bassia/Bassia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bassia est un genre végétal de la famille des Chenopodiaceae ou des Amaranthaceae selon la classification phylogénétique[1]. Il comporte 26 espèces d'arbustes densément ramifiés, annuels ou vivaces, originaires d’Asie, mais maintenant présents dans les parties chaudes et tempérées de l'hémisphère Nord. Certaines sont cultivées pour leur feuillage coloré. Les feuilles sont généralement étroites et à bords lisses, et les fleurs sont normalement des épis peu voyants. Les fruits sont des akènes (fruits à graine unique, petits, secs). Les plantes sont toxiques pour le bétail et produisent des composés aptes à inhiber la croissance des plantes voisines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bassia est un genre végétal de la famille des Chenopodiaceae ou des Amaranthaceae selon la classification phylogénétique. Il comporte 26 espèces d'arbustes densément ramifiés, annuels ou vivaces, originaires d’Asie, mais maintenant présents dans les parties chaudes et tempérées de l'hémisphère Nord. Certaines sont cultivées pour leur feuillage coloré. Les feuilles sont généralement étroites et à bords lisses, et les fleurs sont normalement des épis peu voyants. Les fruits sont des akènes (fruits à graine unique, petits, secs). Les plantes sont toxiques pour le bétail et produisent des composés aptes à inhiber la croissance des plantes voisines.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bassia albescens
 Bassia americana
